--- a/assets/SupplementaryTables.xlsx
+++ b/assets/SupplementaryTables.xlsx
@@ -6,8 +6,9 @@
     <sheet state="visible" name="ST1" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="ST2" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="ST3" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Sheet4" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="Sheet5" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="ST4" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="ST5" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="ST6" sheetId="6" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -15,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="74">
   <si>
     <r>
       <rPr>
@@ -73,19 +74,59 @@
     <t>Extremophile</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>Supplementary Table 2:</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> This table shows the number of simulated phage fragments in each dataset, broken down by fragment length and by lifestyle (temperate or virulent).</t>
+    </r>
+  </si>
+  <si>
     <t>dataset</t>
   </si>
   <si>
-    <t>Ls</t>
-  </si>
-  <si>
-    <t>L_seq</t>
-  </si>
-  <si>
-    <t>checkv_quality</t>
-  </si>
-  <si>
-    <t>sequence_id</t>
+    <t>Fragment length (bp)</t>
+  </si>
+  <si>
+    <t>Lifestyle</t>
+  </si>
+  <si>
+    <t>Fragment count</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>Supplementary Table 3</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>: for each dataset, the count of sequences stratified by CheckV‐assigned quality categories (Complete, High‐quality, Medium‐quality, Low‐quality).</t>
+    </r>
+  </si>
+  <si>
+    <t>Dataset</t>
+  </si>
+  <si>
+    <t>CheckV quality</t>
+  </si>
+  <si>
+    <t>Number of sequences</t>
   </si>
   <si>
     <t>BACPHLIP_all</t>
@@ -112,7 +153,27 @@
     <t>BACPHLIP_validation</t>
   </si>
   <si>
-    <t>test setquality score-ok</t>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>Supplementary Table 4.</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> Number of simulated phage fragments by dataset, fragment length and CheckV quality.</t>
+    </r>
+  </si>
+  <si>
+    <t>CheckV quality category</t>
+  </si>
+  <si>
+    <t>Number of fragments</t>
   </si>
   <si>
     <r>
@@ -141,9 +202,6 @@
     <t>NCBI Acc.</t>
   </si>
   <si>
-    <t>Lifestyle</t>
-  </si>
-  <si>
     <t>Autographiviridae</t>
   </si>
   <si>
@@ -199,13 +257,78 @@
   </si>
   <si>
     <t>JX507079.1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>Supplementary Table 6.</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> Benchmark performance of each method on the Escherichia, BASEL, and Extremophile test datasets under strict‐holdout (no training sequences ≥80% ANI to any test sequence) and standard‐holdout conditions. The table reports accuracy (Acc.), Matthews correlation coefficient (MCC), sensitivity (Sens.), and specificity (Spec.) for each model and dataset.</t>
+    </r>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Strict-Holdout (ANI &lt; 80%)</t>
+  </si>
+  <si>
+    <t>Standard-Holdout (ANI &gt; 80%)</t>
+  </si>
+  <si>
+    <t>Acc.</t>
+  </si>
+  <si>
+    <t>MCC</t>
+  </si>
+  <si>
+    <t>Sens.</t>
+  </si>
+  <si>
+    <t>Spec.</t>
+  </si>
+  <si>
+    <t>ESCHERICHIA</t>
+  </si>
+  <si>
+    <t>ProkBERT-mini</t>
+  </si>
+  <si>
+    <t>ProkBERT-mini-long</t>
+  </si>
+  <si>
+    <t>DNABERT-2</t>
+  </si>
+  <si>
+    <t>NT500</t>
+  </si>
+  <si>
+    <t>NT50</t>
+  </si>
+  <si>
+    <t>DeePhage</t>
+  </si>
+  <si>
+    <t>PhaTYP</t>
+  </si>
+  <si>
+    <t>EXTREMOPHILE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+  <fonts count="11">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -231,6 +354,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -238,6 +372,17 @@
       <b/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -272,7 +417,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="49">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -306,6 +451,12 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
@@ -324,27 +475,79 @@
     <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -371,6 +574,10 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -799,242 +1006,215 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="10.75"/>
-    <col customWidth="1" min="4" max="4" width="8.13"/>
-    <col customWidth="1" min="5" max="5" width="8.5"/>
+    <col customWidth="1" min="2" max="2" width="11.0"/>
+    <col customWidth="1" min="3" max="3" width="10.63"/>
+    <col customWidth="1" min="4" max="4" width="8.5"/>
+    <col customWidth="1" min="5" max="5" width="9.25"/>
+    <col customWidth="1" min="6" max="6" width="13.63"/>
   </cols>
   <sheetData>
+    <row r="1">
+      <c r="B1" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
     <row r="2">
-      <c r="C2" s="14" t="s">
-        <v>14</v>
+      <c r="B2" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>16</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="14"/>
-      <c r="C3" s="15" t="s">
+      <c r="B3" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="15">
+      <c r="C3" s="17">
         <v>500.0</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="D3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="16">
+      <c r="E3" s="18">
         <v>34448.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="14"/>
-      <c r="E4" s="6" t="s">
+      <c r="D4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="6">
+      <c r="E4" s="6">
         <v>34448.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="14"/>
-      <c r="D5" s="17">
+      <c r="C5" s="19">
         <v>2000.0</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="D5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="6">
+      <c r="E5" s="6">
         <v>8603.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="14"/>
-      <c r="E6" s="6" t="s">
+      <c r="D6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="6">
+      <c r="E6" s="6">
         <v>8603.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="14"/>
-      <c r="D7" s="17">
+      <c r="C7" s="19">
         <v>10000.0</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="D7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="6">
+      <c r="E7" s="6">
         <v>1701.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="14"/>
+      <c r="B8" s="8"/>
       <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="9" t="s">
+      <c r="D8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="9">
+      <c r="E8" s="9">
         <v>1701.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="14"/>
-      <c r="C9" s="18" t="s">
+      <c r="B9" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="6">
+      <c r="C9" s="19">
         <v>500.0</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="D9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="6">
+      <c r="E9" s="6">
         <v>33851.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="14"/>
-      <c r="D10" s="6">
+      <c r="D10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="6">
+        <v>33851.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="C11" s="19">
+        <v>2000.0</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="6">
+        <v>8650.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="D12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="6">
+        <v>8650.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" s="19">
+        <v>10000.0</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="6">
+        <v>1726.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="9">
+        <v>1726.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="19">
         <v>500.0</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="D15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="6">
+        <v>1021.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="D16" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="6">
-        <v>33851.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" s="14"/>
-      <c r="D11" s="6">
+      <c r="E16" s="6">
+        <v>1021.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" s="19">
         <v>2000.0</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="D17" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="6">
-        <v>8650.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" s="14"/>
-      <c r="D12" s="6">
-        <v>2000.0</v>
-      </c>
-      <c r="E12" s="6" t="s">
+      <c r="E17" s="6">
+        <v>232.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="D18" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="6">
-        <v>8650.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" s="14"/>
-      <c r="D13" s="6">
+      <c r="E18" s="6">
+        <v>232.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="C19" s="19">
         <v>10000.0</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="D19" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="6">
-        <v>1726.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="B14" s="14"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="9">
-        <v>10000.0</v>
-      </c>
-      <c r="E14" s="9" t="s">
+      <c r="E19" s="6">
+        <v>42.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="9">
-        <v>1726.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="B15" s="14"/>
-      <c r="C15" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="6">
-        <v>500.0</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" s="6">
-        <v>1021.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="B16" s="14"/>
-      <c r="D16" s="6">
-        <v>500.0</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="6">
-        <v>1021.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="B17" s="14"/>
-      <c r="D17" s="6">
-        <v>2000.0</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" s="6">
-        <v>232.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="B18" s="14"/>
-      <c r="D18" s="6">
-        <v>2000.0</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="6">
-        <v>232.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="B19" s="14"/>
-      <c r="D19" s="6">
-        <v>10000.0</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19" s="6">
-        <v>42.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="B20" s="14"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="9">
-        <v>10000.0</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="9">
+      <c r="E20" s="9">
         <v>42.0</v>
       </c>
     </row>
@@ -1081,13 +1261,20 @@
       <c r="B32" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="C3:C8"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="C9:C14"/>
-    <mergeCell ref="C15:C20"/>
+  <mergeCells count="13">
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B15:B20"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="C9:C10"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1099,243 +1286,231 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="19.88"/>
+    <col customWidth="1" min="2" max="2" width="17.25"/>
+    <col customWidth="1" min="3" max="3" width="15.5"/>
+    <col customWidth="1" min="4" max="4" width="13.88"/>
   </cols>
   <sheetData>
-    <row r="2">
-      <c r="C2" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>18</v>
-      </c>
-    </row>
+    <row r="1">
+      <c r="B1" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" ht="24.75" customHeight="1"/>
     <row r="3">
-      <c r="B3" s="14"/>
-      <c r="C3" s="15" t="s">
-        <v>19</v>
+      <c r="B3" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>21</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="16">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="18">
         <v>157.0</v>
       </c>
     </row>
-    <row r="4">
-      <c r="B4" s="14"/>
-      <c r="D4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="6">
+    <row r="5">
+      <c r="C5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="6">
         <v>1909.0</v>
       </c>
     </row>
-    <row r="5">
-      <c r="B5" s="14"/>
-      <c r="D5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="6">
+    <row r="6">
+      <c r="C6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="6">
         <v>4.0</v>
       </c>
     </row>
-    <row r="6">
-      <c r="B6" s="14"/>
-      <c r="D6" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="6">
+    <row r="7">
+      <c r="C7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="6">
         <v>42.0</v>
       </c>
     </row>
-    <row r="7">
-      <c r="B7" s="14"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9" t="s">
+    <row r="8">
+      <c r="B8" s="8"/>
+      <c r="C8" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="9">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="9">
+      <c r="D9" s="6">
+        <v>101.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="C10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="6">
+        <v>1651.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="C11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="6">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="6">
+        <v>40.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="6">
         <v>2.0</v>
       </c>
     </row>
-    <row r="8">
-      <c r="B8" s="14"/>
-      <c r="C8" s="17" t="s">
+    <row r="14">
+      <c r="B14" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="18">
+        <v>56.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="6">
-        <v>101.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" s="14"/>
-      <c r="D9" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="6">
-        <v>1651.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" s="14"/>
-      <c r="D10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="6">
+      <c r="D15" s="6">
+        <v>258.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="8"/>
+      <c r="C16" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="9">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="6">
+        <v>410.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="C18" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="6">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="18">
+        <v>194.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="6">
+        <v>198.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" s="8"/>
+      <c r="C21" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="9">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="6">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="6">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" s="8"/>
+      <c r="C24" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="9">
         <v>4.0</v>
       </c>
     </row>
-    <row r="11">
-      <c r="B11" s="14"/>
-      <c r="D11" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="6">
-        <v>40.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" s="14"/>
-      <c r="D12" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="6">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" s="14"/>
-      <c r="C13" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="16">
-        <v>56.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="B14" s="14"/>
-      <c r="D14" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="6">
-        <v>258.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="B15" s="14"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="9">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="B16" s="14"/>
-      <c r="C16" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="6">
-        <v>410.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="B17" s="14"/>
-      <c r="D17" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="6">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="B18" s="14"/>
-      <c r="C18" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="16">
-        <v>194.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="B19" s="14"/>
-      <c r="D19" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="6">
-        <v>198.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="B20" s="14"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" s="9">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="B21" s="14"/>
-      <c r="C21" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" s="6">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="B22" s="14"/>
-      <c r="D22" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" s="6">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="B23" s="14"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23" s="9">
-        <v>4.0</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="C8:C12"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="C21:C23"/>
+  <mergeCells count="7">
+    <mergeCell ref="B1:D2"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B22:B24"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1347,16 +1522,259 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="2" max="2" width="15.75"/>
+    <col customWidth="1" min="3" max="3" width="10.88"/>
+    <col customWidth="1" min="4" max="4" width="15.38"/>
+    <col customWidth="1" min="5" max="5" width="12.5"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="6" t="s">
+    <row r="1" ht="31.5" customHeight="1">
+      <c r="B1" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="27">
+        <v>500.0</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="28">
+        <v>54262.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="D4" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="28">
+        <v>14634.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="C5" s="27">
+        <v>2000.0</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="28">
+        <v>16748.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="D6" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="28">
+        <v>458.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="C7" s="27">
+        <v>10000.0</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="28">
+        <v>3344.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="D8" s="27" t="s">
         <v>27</v>
       </c>
+      <c r="E8" s="28">
+        <v>19.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="30">
+        <v>39.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="27">
+        <v>500.0</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="28">
+        <v>54099.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="D11" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="28">
+        <v>13603.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" s="27">
+        <v>2000.0</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="28">
+        <v>16854.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="D13" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="28">
+        <v>446.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" s="27">
+        <v>10000.0</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="28">
+        <v>3408.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="D15" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="28">
+        <v>21.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="30">
+        <v>23.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="27">
+        <v>500.0</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="28">
+        <v>1236.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="D18" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="28">
+        <v>806.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="C19" s="27">
+        <v>2000.0</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="28">
+        <v>436.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="D20" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="28">
+        <v>28.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" s="27">
+        <v>10000.0</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="28">
+        <v>81.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="30">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="G24" s="28"/>
+    </row>
+    <row r="25">
+      <c r="G25" s="28"/>
     </row>
   </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="B17:B22"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="B10:B16"/>
+    <mergeCell ref="C10:C11"/>
+  </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -1378,140 +1796,140 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="21"/>
-      <c r="B1" s="22" t="s">
-        <v>28</v>
+      <c r="A1" s="32"/>
+      <c r="B1" s="33" t="s">
+        <v>34</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
-      <c r="F1" s="21"/>
+      <c r="F1" s="32"/>
     </row>
     <row r="2">
-      <c r="A2" s="21"/>
-      <c r="B2" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="21"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="32"/>
     </row>
     <row r="3">
-      <c r="A3" s="24"/>
-      <c r="B3" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="21"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="32"/>
     </row>
     <row r="4">
-      <c r="A4" s="24"/>
-      <c r="D4" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="21"/>
+      <c r="A4" s="35"/>
+      <c r="D4" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="32"/>
     </row>
     <row r="5">
-      <c r="A5" s="24"/>
+      <c r="A5" s="35"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
-      <c r="D5" s="27" t="s">
-        <v>38</v>
+      <c r="D5" s="38" t="s">
+        <v>43</v>
       </c>
       <c r="E5" s="8"/>
-      <c r="F5" s="21"/>
+      <c r="F5" s="32"/>
     </row>
     <row r="6">
-      <c r="A6" s="24"/>
-      <c r="B6" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="21"/>
+      <c r="A6" s="35"/>
+      <c r="B6" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="32"/>
     </row>
     <row r="7">
-      <c r="A7" s="24"/>
-      <c r="D7" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="21"/>
+      <c r="A7" s="35"/>
+      <c r="D7" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="32"/>
     </row>
     <row r="8">
-      <c r="A8" s="24"/>
+      <c r="A8" s="35"/>
       <c r="B8" s="8"/>
-      <c r="C8" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="21"/>
+      <c r="C8" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="32"/>
     </row>
     <row r="9">
-      <c r="A9" s="21"/>
-      <c r="B9" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="21"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="32"/>
     </row>
     <row r="10">
-      <c r="A10" s="21"/>
-      <c r="B10" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>51</v>
+      <c r="A10" s="32"/>
+      <c r="B10" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>56</v>
       </c>
       <c r="E10" s="8"/>
-      <c r="F10" s="21"/>
+      <c r="F10" s="32"/>
     </row>
     <row r="11">
-      <c r="A11" s="21"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
+      <c r="A11" s="32"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
     </row>
     <row r="12">
-      <c r="A12" s="21"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
+      <c r="A12" s="32"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1525,4 +1943,709 @@
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="7.75"/>
+    <col customWidth="1" min="2" max="2" width="13.63"/>
+    <col customWidth="1" min="3" max="3" width="15.63"/>
+    <col customWidth="1" min="4" max="11" width="6.75"/>
+  </cols>
+  <sheetData>
+    <row r="2" ht="62.25" customHeight="1">
+      <c r="B2" s="15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" ht="27.75" customHeight="1">
+      <c r="B3" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+    </row>
+    <row r="4" ht="26.25" customHeight="1">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" s="43" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="46">
+        <v>0.98</v>
+      </c>
+      <c r="E5" s="46">
+        <v>0.97</v>
+      </c>
+      <c r="F5" s="46">
+        <v>0.97</v>
+      </c>
+      <c r="G5" s="46">
+        <v>1.0</v>
+      </c>
+      <c r="H5" s="46">
+        <v>0.98</v>
+      </c>
+      <c r="I5" s="46">
+        <v>0.97</v>
+      </c>
+      <c r="J5" s="46">
+        <v>0.97</v>
+      </c>
+      <c r="K5" s="46">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="C6" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="46">
+        <v>0.98</v>
+      </c>
+      <c r="E6" s="46">
+        <v>0.97</v>
+      </c>
+      <c r="F6" s="46">
+        <v>0.97</v>
+      </c>
+      <c r="G6" s="46">
+        <v>1.0</v>
+      </c>
+      <c r="H6" s="46">
+        <v>0.98</v>
+      </c>
+      <c r="I6" s="46">
+        <v>0.97</v>
+      </c>
+      <c r="J6" s="46">
+        <v>0.97</v>
+      </c>
+      <c r="K6" s="46">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="C7" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="46">
+        <v>0.98</v>
+      </c>
+      <c r="E7" s="46">
+        <v>0.97</v>
+      </c>
+      <c r="F7" s="46">
+        <v>0.97</v>
+      </c>
+      <c r="G7" s="46">
+        <v>1.0</v>
+      </c>
+      <c r="H7" s="46">
+        <v>0.98</v>
+      </c>
+      <c r="I7" s="46">
+        <v>0.97</v>
+      </c>
+      <c r="J7" s="46">
+        <v>0.97</v>
+      </c>
+      <c r="K7" s="46">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="C8" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="46">
+        <v>0.98</v>
+      </c>
+      <c r="E8" s="46">
+        <v>0.97</v>
+      </c>
+      <c r="F8" s="46">
+        <v>0.97</v>
+      </c>
+      <c r="G8" s="46">
+        <v>1.0</v>
+      </c>
+      <c r="H8" s="46">
+        <v>0.98</v>
+      </c>
+      <c r="I8" s="46">
+        <v>0.97</v>
+      </c>
+      <c r="J8" s="46">
+        <v>0.97</v>
+      </c>
+      <c r="K8" s="46">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="46">
+        <v>0.98</v>
+      </c>
+      <c r="E9" s="46">
+        <v>0.97</v>
+      </c>
+      <c r="F9" s="46">
+        <v>0.97</v>
+      </c>
+      <c r="G9" s="46">
+        <v>1.0</v>
+      </c>
+      <c r="H9" s="46">
+        <v>0.98</v>
+      </c>
+      <c r="I9" s="46">
+        <v>0.97</v>
+      </c>
+      <c r="J9" s="46">
+        <v>0.97</v>
+      </c>
+      <c r="K9" s="46">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="C10" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="46">
+        <v>0.97</v>
+      </c>
+      <c r="E10" s="46">
+        <v>0.95</v>
+      </c>
+      <c r="F10" s="46">
+        <v>0.95</v>
+      </c>
+      <c r="G10" s="46">
+        <v>1.0</v>
+      </c>
+      <c r="H10" s="46">
+        <v>0.97</v>
+      </c>
+      <c r="I10" s="46">
+        <v>0.95</v>
+      </c>
+      <c r="J10" s="46">
+        <v>0.95</v>
+      </c>
+      <c r="K10" s="46">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="8"/>
+      <c r="C11" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="48">
+        <v>0.94</v>
+      </c>
+      <c r="E11" s="48">
+        <v>0.88</v>
+      </c>
+      <c r="F11" s="48">
+        <v>0.97</v>
+      </c>
+      <c r="G11" s="48">
+        <v>0.9</v>
+      </c>
+      <c r="H11" s="48">
+        <v>0.94</v>
+      </c>
+      <c r="I11" s="48">
+        <v>0.88</v>
+      </c>
+      <c r="J11" s="48">
+        <v>0.97</v>
+      </c>
+      <c r="K11" s="48">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="46">
+        <v>0.97</v>
+      </c>
+      <c r="E12" s="46">
+        <v>0.93</v>
+      </c>
+      <c r="F12" s="46">
+        <v>0.93</v>
+      </c>
+      <c r="G12" s="46">
+        <v>1.0</v>
+      </c>
+      <c r="H12" s="46">
+        <v>1.0</v>
+      </c>
+      <c r="I12" s="46">
+        <v>0.99</v>
+      </c>
+      <c r="J12" s="46">
+        <v>0.99</v>
+      </c>
+      <c r="K12" s="46">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="46">
+        <v>0.97</v>
+      </c>
+      <c r="E13" s="46">
+        <v>0.94</v>
+      </c>
+      <c r="F13" s="46">
+        <v>0.94</v>
+      </c>
+      <c r="G13" s="46">
+        <v>1.0</v>
+      </c>
+      <c r="H13" s="46">
+        <v>1.0</v>
+      </c>
+      <c r="I13" s="46">
+        <v>0.99</v>
+      </c>
+      <c r="J13" s="46">
+        <v>0.99</v>
+      </c>
+      <c r="K13" s="46">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="46">
+        <v>0.96</v>
+      </c>
+      <c r="E14" s="46">
+        <v>0.93</v>
+      </c>
+      <c r="F14" s="46">
+        <v>0.92</v>
+      </c>
+      <c r="G14" s="46">
+        <v>1.0</v>
+      </c>
+      <c r="H14" s="46">
+        <v>1.0</v>
+      </c>
+      <c r="I14" s="46">
+        <v>0.99</v>
+      </c>
+      <c r="J14" s="46">
+        <v>0.99</v>
+      </c>
+      <c r="K14" s="46">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="46">
+        <v>0.95</v>
+      </c>
+      <c r="E15" s="46">
+        <v>0.91</v>
+      </c>
+      <c r="F15" s="46">
+        <v>0.9</v>
+      </c>
+      <c r="G15" s="46">
+        <v>1.0</v>
+      </c>
+      <c r="H15" s="46">
+        <v>1.0</v>
+      </c>
+      <c r="I15" s="46">
+        <v>0.99</v>
+      </c>
+      <c r="J15" s="46">
+        <v>0.99</v>
+      </c>
+      <c r="K15" s="46">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="46">
+        <v>0.93</v>
+      </c>
+      <c r="E16" s="46">
+        <v>0.87</v>
+      </c>
+      <c r="F16" s="46">
+        <v>0.87</v>
+      </c>
+      <c r="G16" s="46">
+        <v>1.0</v>
+      </c>
+      <c r="H16" s="46">
+        <v>0.99</v>
+      </c>
+      <c r="I16" s="46">
+        <v>0.99</v>
+      </c>
+      <c r="J16" s="46">
+        <v>0.99</v>
+      </c>
+      <c r="K16" s="46">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="46">
+        <v>0.91</v>
+      </c>
+      <c r="E17" s="46">
+        <v>0.84</v>
+      </c>
+      <c r="F17" s="46">
+        <v>0.83</v>
+      </c>
+      <c r="G17" s="46">
+        <v>1.0</v>
+      </c>
+      <c r="H17" s="46">
+        <v>0.91</v>
+      </c>
+      <c r="I17" s="46">
+        <v>0.84</v>
+      </c>
+      <c r="J17" s="46">
+        <v>0.83</v>
+      </c>
+      <c r="K17" s="46">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" s="8"/>
+      <c r="C18" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="48">
+        <v>0.9</v>
+      </c>
+      <c r="E18" s="48">
+        <v>0.8</v>
+      </c>
+      <c r="F18" s="48">
+        <v>0.9</v>
+      </c>
+      <c r="G18" s="48">
+        <v>0.91</v>
+      </c>
+      <c r="H18" s="48">
+        <v>0.9</v>
+      </c>
+      <c r="I18" s="48">
+        <v>0.8</v>
+      </c>
+      <c r="J18" s="48">
+        <v>0.9</v>
+      </c>
+      <c r="K18" s="48">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="46">
+        <v>1.0</v>
+      </c>
+      <c r="E19" s="46">
+        <v>1.0</v>
+      </c>
+      <c r="F19" s="46">
+        <v>1.0</v>
+      </c>
+      <c r="G19" s="46">
+        <v>1.0</v>
+      </c>
+      <c r="H19" s="46">
+        <v>1.0</v>
+      </c>
+      <c r="I19" s="46">
+        <v>1.0</v>
+      </c>
+      <c r="J19" s="46">
+        <v>1.0</v>
+      </c>
+      <c r="K19" s="46">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="46">
+        <v>1.0</v>
+      </c>
+      <c r="E20" s="46">
+        <v>1.0</v>
+      </c>
+      <c r="F20" s="46">
+        <v>1.0</v>
+      </c>
+      <c r="G20" s="46">
+        <v>1.0</v>
+      </c>
+      <c r="H20" s="46">
+        <v>1.0</v>
+      </c>
+      <c r="I20" s="46">
+        <v>1.0</v>
+      </c>
+      <c r="J20" s="46">
+        <v>1.0</v>
+      </c>
+      <c r="K20" s="46">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="46">
+        <v>1.0</v>
+      </c>
+      <c r="E21" s="46">
+        <v>1.0</v>
+      </c>
+      <c r="F21" s="46">
+        <v>1.0</v>
+      </c>
+      <c r="G21" s="46">
+        <v>1.0</v>
+      </c>
+      <c r="H21" s="46">
+        <v>1.0</v>
+      </c>
+      <c r="I21" s="46">
+        <v>1.0</v>
+      </c>
+      <c r="J21" s="46">
+        <v>1.0</v>
+      </c>
+      <c r="K21" s="46">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="C22" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="46">
+        <v>1.0</v>
+      </c>
+      <c r="E22" s="46">
+        <v>1.0</v>
+      </c>
+      <c r="F22" s="46">
+        <v>1.0</v>
+      </c>
+      <c r="G22" s="46">
+        <v>1.0</v>
+      </c>
+      <c r="H22" s="46">
+        <v>1.0</v>
+      </c>
+      <c r="I22" s="46">
+        <v>1.0</v>
+      </c>
+      <c r="J22" s="46">
+        <v>1.0</v>
+      </c>
+      <c r="K22" s="46">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="46">
+        <v>1.0</v>
+      </c>
+      <c r="E23" s="46">
+        <v>1.0</v>
+      </c>
+      <c r="F23" s="46">
+        <v>1.0</v>
+      </c>
+      <c r="G23" s="46">
+        <v>1.0</v>
+      </c>
+      <c r="H23" s="46">
+        <v>1.0</v>
+      </c>
+      <c r="I23" s="46">
+        <v>1.0</v>
+      </c>
+      <c r="J23" s="46">
+        <v>1.0</v>
+      </c>
+      <c r="K23" s="46">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="46">
+        <v>1.0</v>
+      </c>
+      <c r="E24" s="46">
+        <v>1.0</v>
+      </c>
+      <c r="F24" s="46">
+        <v>1.0</v>
+      </c>
+      <c r="G24" s="46">
+        <v>1.0</v>
+      </c>
+      <c r="H24" s="46">
+        <v>1.0</v>
+      </c>
+      <c r="I24" s="46">
+        <v>1.0</v>
+      </c>
+      <c r="J24" s="46">
+        <v>1.0</v>
+      </c>
+      <c r="K24" s="46">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" s="8"/>
+      <c r="C25" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="48">
+        <v>0.69</v>
+      </c>
+      <c r="E25" s="48">
+        <v>0.52</v>
+      </c>
+      <c r="F25" s="48">
+        <v>1.0</v>
+      </c>
+      <c r="G25" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="H25" s="48">
+        <v>0.69</v>
+      </c>
+      <c r="I25" s="48">
+        <v>0.52</v>
+      </c>
+      <c r="J25" s="48">
+        <v>1.0</v>
+      </c>
+      <c r="K25" s="48">
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="B5:B11"/>
+    <mergeCell ref="B12:B18"/>
+    <mergeCell ref="B19:B25"/>
+  </mergeCells>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>